--- a/DataGenerator/excel/monster.xlsx
+++ b/DataGenerator/excel/monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="140" windowWidth="20380" windowHeight="12060"/>
+    <workbookView xWindow="240" yWindow="140" windowWidth="23160" windowHeight="13180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diropId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,10 +208,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -503,121 +517,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="2" max="3" width="16" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5">
         <v>300</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>20</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>6.5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6">
         <v>400</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>20</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>6.5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>19</v>
       </c>
     </row>

--- a/DataGenerator/excel/monster.xlsx
+++ b/DataGenerator/excel/monster.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="140" windowWidth="23160" windowHeight="13180"/>
+    <workbookView xWindow="240" yWindow="144" windowWidth="23160" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,8 +20,219 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+引用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>scene_map</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>表的场景</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>id</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，填此列表示为暗雷用怪</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+对应</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>raid_map</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>中的副本</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>id</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，此列与</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>sceneID</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>互斥，填本列为副本里的怪</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+对应副本里的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>obj</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>的怪点</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>id</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,14 +326,46 @@
   </si>
   <si>
     <t>diropId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raidID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本怪点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景地图序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sceneID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +395,27 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -216,9 +480,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -516,20 +780,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="3" width="16" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,8 +817,17 @@
       <c r="G1" t="s">
         <v>18</v>
       </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -574,8 +849,17 @@
       <c r="G2" t="s">
         <v>16</v>
       </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,15 +881,24 @@
       <c r="G3" t="s">
         <v>17</v>
       </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>1</v>
       </c>
@@ -627,19 +920,25 @@
       <c r="G5" t="s">
         <v>19</v>
       </c>
+      <c r="I5">
+        <v>101</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -649,12 +948,219 @@
       </c>
       <c r="G6" t="s">
         <v>19</v>
+      </c>
+      <c r="I6">
+        <v>101</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>300</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>6.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7">
+        <v>101</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>300</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>6.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8">
+        <v>101</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>300</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>6.5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9">
+        <v>101</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>300</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>6.5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10">
+        <v>101</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>300</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>6.5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11">
+        <v>101</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>300</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>6.5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12">
+        <v>101</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>400</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>6.5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -664,12 +1170,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -682,12 +1188,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataGenerator/excel/monster.xlsx
+++ b/DataGenerator/excel/monster.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="144" windowWidth="23160" windowHeight="13176"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="21840" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -112,7 +112,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-对应</t>
+玩家遇到该暗雷怪物的最低等级，填</t>
         </r>
         <r>
           <rPr>
@@ -121,44 +121,6 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>raid_map</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>中的副本</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>id</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>，此列与</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t>sceneID</t>
         </r>
         <r>
@@ -169,11 +131,139 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>互斥，填本列为副本里的怪</t>
+          <t>后生效</t>
         </r>
       </text>
     </comment>
     <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+玩家遇到该暗雷怪物的最低等级，填</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>sceneID</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>后生效</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+对应</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>raid_map</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>中的副本</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>id</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，此列与</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>sceneID</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>互斥，填本列为副本里的怪</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -232,7 +322,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,6 +448,26 @@
   </si>
   <si>
     <t>sceneID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -781,21 +891,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="3" width="16" customWidth="1"/>
     <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13.875" customWidth="1"/>
+    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,13 +931,19 @@
         <v>29</v>
       </c>
       <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -853,13 +969,19 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -885,20 +1007,26 @@
         <v>31</v>
       </c>
       <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1</v>
       </c>
@@ -920,14 +1048,14 @@
       <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>101</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>2</v>
       </c>
@@ -949,14 +1077,14 @@
       <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>101</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>3</v>
       </c>
@@ -978,14 +1106,14 @@
       <c r="G7" t="s">
         <v>19</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>101</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1007,14 +1135,14 @@
       <c r="G8" t="s">
         <v>19</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>101</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1036,14 +1164,14 @@
       <c r="G9" t="s">
         <v>19</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>101</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1065,14 +1193,14 @@
       <c r="G10" t="s">
         <v>19</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>101</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1094,14 +1222,14 @@
       <c r="G11" t="s">
         <v>19</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>101</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1123,14 +1251,14 @@
       <c r="G12" t="s">
         <v>19</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>101</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1154,6 +1282,108 @@
       </c>
       <c r="H13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>500</v>
+      </c>
+      <c r="E14">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>600</v>
+      </c>
+      <c r="E15">
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>600</v>
+      </c>
+      <c r="E16">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1175,7 +1405,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1193,7 +1423,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
